--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-20%.xlsx
@@ -72207,6 +72207,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.37383333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>430.6466666666666</v>
       </c>
@@ -72262,6 +72265,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>14.459</v>
+      </c>
       <c r="C3" t="n">
         <v>441.2122222222222</v>
       </c>
@@ -72317,6 +72323,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.0715</v>
+      </c>
       <c r="C4" t="n">
         <v>450.365</v>
       </c>
@@ -72372,6 +72381,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.20933333333334</v>
+      </c>
       <c r="C5" t="n">
         <v>425.5188888888889</v>
       </c>
@@ -72427,6 +72439,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.62366666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>436.8405555555556</v>
       </c>
@@ -72482,6 +72497,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>11.573</v>
+      </c>
       <c r="C7" t="n">
         <v>402.975</v>
       </c>
@@ -72537,6 +72555,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.67216666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>424.7866666666667</v>
       </c>
@@ -72592,6 +72613,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.1255</v>
+      </c>
       <c r="C9" t="n">
         <v>422.5183333333333</v>
       </c>
@@ -72647,6 +72671,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.7825</v>
+      </c>
       <c r="C10" t="n">
         <v>455.2666666666667</v>
       </c>
@@ -72702,6 +72729,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.14383333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>420.7733333333333</v>
       </c>
@@ -72757,6 +72787,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.61783333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>445.0905555555556</v>
       </c>
@@ -72812,6 +72845,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.38333333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>429.0911111111112</v>
       </c>
@@ -72867,6 +72903,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.8005</v>
+      </c>
       <c r="C14" t="n">
         <v>442.2316666666667</v>
       </c>
@@ -72922,6 +72961,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.547</v>
+      </c>
       <c r="C15" t="n">
         <v>411.0638888888889</v>
       </c>
@@ -72977,6 +73019,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.788</v>
+      </c>
       <c r="C16" t="n">
         <v>420.7322222222222</v>
       </c>
@@ -73032,6 +73077,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>11.9445</v>
+      </c>
       <c r="C17" t="n">
         <v>415.4916666666667</v>
       </c>
@@ -73087,6 +73135,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.4205</v>
+      </c>
       <c r="C18" t="n">
         <v>458.5600000000001</v>
       </c>
@@ -73142,6 +73193,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>14.03016666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>453.9477777777778</v>
       </c>
@@ -73197,6 +73251,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>14.44583333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>464.4072222222222</v>
       </c>
@@ -73252,6 +73309,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.76033333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>451.72</v>
       </c>
@@ -73307,6 +73367,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.60516666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>432.3488888888888</v>
       </c>
@@ -73362,6 +73425,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.25483333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>432.4466666666667</v>
       </c>
@@ -73417,6 +73483,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.51466666666667</v>
+      </c>
       <c r="C24" t="n">
         <v>448.0772222222222</v>
       </c>
@@ -73472,6 +73541,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.99166666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>449.3050000000001</v>
       </c>
@@ -73527,6 +73599,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.04116666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>418.1772222222222</v>
       </c>
@@ -73582,6 +73657,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.47766666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>451.5849999999999</v>
       </c>
@@ -73637,6 +73715,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.02133333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>446.9261111111111</v>
       </c>
@@ -73692,6 +73773,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.60766666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>457.6344444444444</v>
       </c>
@@ -73747,6 +73831,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.834</v>
+      </c>
       <c r="C30" t="n">
         <v>442.7055555555555</v>
       </c>
@@ -73801,6 +73888,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.768</v>
       </c>
       <c r="C31" t="n">
         <v>419.3777777777777</v>
